--- a/ProbableCasesOverTimeByCounty/2021-02-19.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-19.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/18/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/19/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Probable 2021-02-18</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-19</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1339,6 +1342,7 @@
     <col min="109" max="109" width="12.0" customWidth="true"/>
     <col min="110" max="110" width="12.0" customWidth="true"/>
     <col min="111" max="111" width="12.0" customWidth="true"/>
+    <col min="112" max="112" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1685,10 +1689,13 @@
       <c r="DG3" t="s" s="10">
         <v>112</v>
       </c>
+      <c r="DH3" t="s" s="10">
+        <v>113</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2019,11 +2026,14 @@
       </c>
       <c r="DG4" t="n">
         <v>1237.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1240.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2353,12 +2363,15 @@
         <v>0.0</v>
       </c>
       <c r="DG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2688,12 +2701,15 @@
         <v>3150.0</v>
       </c>
       <c r="DG6" t="n">
+        <v>3150.0</v>
+      </c>
+      <c r="DH6" t="n">
         <v>3150.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3023,12 +3039,15 @@
         <v>267.0</v>
       </c>
       <c r="DG7" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="DH7" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3358,12 +3377,15 @@
         <v>90.0</v>
       </c>
       <c r="DG8" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="DH8" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3693,12 +3715,15 @@
         <v>42.0</v>
       </c>
       <c r="DG9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DH9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4028,12 +4053,15 @@
         <v>1167.0</v>
       </c>
       <c r="DG10" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="DH10" t="n">
         <v>1167.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4364,11 +4392,14 @@
       </c>
       <c r="DG11" t="n">
         <v>267.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4698,12 +4729,15 @@
         <v>209.0</v>
       </c>
       <c r="DG12" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DH12" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5034,11 +5068,14 @@
       </c>
       <c r="DG13" t="n">
         <v>278.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5369,11 +5406,14 @@
       </c>
       <c r="DG14" t="n">
         <v>1832.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>1837.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5703,12 +5743,15 @@
         <v>169.0</v>
       </c>
       <c r="DG15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DH15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6039,11 +6082,14 @@
       </c>
       <c r="DG16" t="n">
         <v>365.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6373,12 +6419,15 @@
         <v>0.0</v>
       </c>
       <c r="DG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6708,12 +6757,15 @@
         <v>29208.0</v>
       </c>
       <c r="DG18" t="n">
+        <v>29208.0</v>
+      </c>
+      <c r="DH18" t="n">
         <v>29208.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -7043,12 +7095,15 @@
         <v>111.0</v>
       </c>
       <c r="DG19" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="DH19" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7378,12 +7433,15 @@
         <v>7.0</v>
       </c>
       <c r="DG20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DH20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7714,11 +7772,14 @@
       </c>
       <c r="DG21" t="n">
         <v>283.0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -8049,11 +8110,14 @@
       </c>
       <c r="DG22" t="n">
         <v>1891.0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>1910.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8384,11 +8448,14 @@
       </c>
       <c r="DG23" t="n">
         <v>4617.0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>4630.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8718,12 +8785,15 @@
         <v>3479.0</v>
       </c>
       <c r="DG24" t="n">
+        <v>3479.0</v>
+      </c>
+      <c r="DH24" t="n">
         <v>3479.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -9053,12 +9123,15 @@
         <v>80.0</v>
       </c>
       <c r="DG25" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DH25" t="n">
         <v>80.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9388,12 +9461,15 @@
         <v>58.0</v>
       </c>
       <c r="DG26" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DH26" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -9724,11 +9800,14 @@
       </c>
       <c r="DG27" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -10058,12 +10137,15 @@
         <v>2119.0</v>
       </c>
       <c r="DG28" t="n">
+        <v>2119.0</v>
+      </c>
+      <c r="DH28" t="n">
         <v>2119.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10393,12 +10475,15 @@
         <v>386.0</v>
       </c>
       <c r="DG29" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="DH29" t="n">
         <v>386.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -10728,12 +10813,15 @@
         <v>404.0</v>
       </c>
       <c r="DG30" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="DH30" t="n">
         <v>408.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -11064,11 +11152,14 @@
       </c>
       <c r="DG31" t="n">
         <v>269.0</v>
+      </c>
+      <c r="DH31" t="n">
+        <v>271.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -11399,11 +11490,14 @@
       </c>
       <c r="DG32" t="n">
         <v>186.0</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -11733,12 +11827,15 @@
         <v>537.0</v>
       </c>
       <c r="DG33" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="DH33" t="n">
         <v>537.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12068,12 +12165,15 @@
         <v>0.0</v>
       </c>
       <c r="DG34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -12404,11 +12504,14 @@
       </c>
       <c r="DG35" t="n">
         <v>369.0</v>
+      </c>
+      <c r="DH35" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -12738,12 +12841,15 @@
         <v>141.0</v>
       </c>
       <c r="DG36" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="DH36" t="n">
         <v>141.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -13074,11 +13180,14 @@
       </c>
       <c r="DG37" t="n">
         <v>641.0</v>
+      </c>
+      <c r="DH37" t="n">
+        <v>643.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -13408,12 +13517,15 @@
         <v>251.0</v>
       </c>
       <c r="DG38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DH38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -13743,12 +13855,15 @@
         <v>0.0</v>
       </c>
       <c r="DG39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -14079,11 +14194,14 @@
       </c>
       <c r="DG40" t="n">
         <v>1780.0</v>
+      </c>
+      <c r="DH40" t="n">
+        <v>1793.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -14413,12 +14531,15 @@
         <v>24.0</v>
       </c>
       <c r="DG41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DH41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -14748,12 +14869,15 @@
         <v>78.0</v>
       </c>
       <c r="DG42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DH42" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -15083,12 +15207,15 @@
         <v>22.0</v>
       </c>
       <c r="DG43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DH43" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -15418,12 +15545,15 @@
         <v>224.0</v>
       </c>
       <c r="DG44" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="DH44" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -15753,12 +15883,15 @@
         <v>231.0</v>
       </c>
       <c r="DG45" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DH45" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -16089,11 +16222,14 @@
       </c>
       <c r="DG46" t="n">
         <v>12402.0</v>
+      </c>
+      <c r="DH46" t="n">
+        <v>12449.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -16423,12 +16559,15 @@
         <v>70.0</v>
       </c>
       <c r="DG47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DH47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -16758,12 +16897,15 @@
         <v>240.0</v>
       </c>
       <c r="DG48" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="DH48" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -17093,12 +17235,15 @@
         <v>4172.0</v>
       </c>
       <c r="DG49" t="n">
+        <v>4172.0</v>
+      </c>
+      <c r="DH49" t="n">
         <v>4172.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -17428,12 +17573,15 @@
         <v>249.0</v>
       </c>
       <c r="DG50" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DH50" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -17763,12 +17911,15 @@
         <v>138.0</v>
       </c>
       <c r="DG51" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DH51" t="n">
         <v>139.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -18098,12 +18249,15 @@
         <v>400.0</v>
       </c>
       <c r="DG52" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="DH52" t="n">
         <v>400.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -18433,12 +18587,15 @@
         <v>235.0</v>
       </c>
       <c r="DG53" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="DH53" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -18768,12 +18925,15 @@
         <v>46.0</v>
       </c>
       <c r="DG54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DH54" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -19103,12 +19263,15 @@
         <v>300.0</v>
       </c>
       <c r="DG55" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="DH55" t="n">
         <v>300.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -19439,11 +19602,14 @@
       </c>
       <c r="DG56" t="n">
         <v>349.0</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>350.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -19773,12 +19939,15 @@
         <v>196.0</v>
       </c>
       <c r="DG57" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DH57" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -20108,12 +20277,15 @@
         <v>23.0</v>
       </c>
       <c r="DG58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DH58" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -20443,12 +20615,15 @@
         <v>49.0</v>
       </c>
       <c r="DG59" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DH59" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -20779,11 +20954,14 @@
       </c>
       <c r="DG60" t="n">
         <v>33899.0</v>
+      </c>
+      <c r="DH60" t="n">
+        <v>33955.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -21113,12 +21291,15 @@
         <v>0.0</v>
       </c>
       <c r="DG61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -21448,12 +21629,15 @@
         <v>640.0</v>
       </c>
       <c r="DG62" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="DH62" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -21784,11 +21968,14 @@
       </c>
       <c r="DG63" t="n">
         <v>122.0</v>
+      </c>
+      <c r="DH63" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -22118,12 +22305,15 @@
         <v>13728.0</v>
       </c>
       <c r="DG64" t="n">
+        <v>13728.0</v>
+      </c>
+      <c r="DH64" t="n">
         <v>13728.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -22453,12 +22643,15 @@
         <v>0.0</v>
       </c>
       <c r="DG65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -22788,12 +22981,15 @@
         <v>57.0</v>
       </c>
       <c r="DG66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DH66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -23123,12 +23319,15 @@
         <v>140.0</v>
       </c>
       <c r="DG67" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DH67" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -23458,12 +23657,15 @@
         <v>174.0</v>
       </c>
       <c r="DG68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DH68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -23793,12 +23995,15 @@
         <v>89.0</v>
       </c>
       <c r="DG69" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="DH69" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -24128,12 +24333,15 @@
         <v>342.0</v>
       </c>
       <c r="DG70" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="DH70" t="n">
         <v>342.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -24463,12 +24671,15 @@
         <v>7455.0</v>
       </c>
       <c r="DG71" t="n">
+        <v>7455.0</v>
+      </c>
+      <c r="DH71" t="n">
         <v>7455.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -24798,12 +25009,15 @@
         <v>39.0</v>
       </c>
       <c r="DG72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DH72" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -25133,12 +25347,15 @@
         <v>2654.0</v>
       </c>
       <c r="DG73" t="n">
+        <v>2654.0</v>
+      </c>
+      <c r="DH73" t="n">
         <v>2654.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -25468,12 +25685,15 @@
         <v>0.0</v>
       </c>
       <c r="DG74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -25803,12 +26023,15 @@
         <v>1229.0</v>
       </c>
       <c r="DG75" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="DH75" t="n">
         <v>1229.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -26138,12 +26361,15 @@
         <v>156.0</v>
       </c>
       <c r="DG76" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DH76" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -26473,12 +26699,15 @@
         <v>651.0</v>
       </c>
       <c r="DG77" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="DH77" t="n">
         <v>651.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -26808,12 +27037,15 @@
         <v>843.0</v>
       </c>
       <c r="DG78" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="DH78" t="n">
         <v>844.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -27143,12 +27375,15 @@
         <v>0.0</v>
       </c>
       <c r="DG79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -27478,12 +27713,15 @@
         <v>439.0</v>
       </c>
       <c r="DG80" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="DH80" t="n">
         <v>439.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -27813,12 +28051,15 @@
         <v>32.0</v>
       </c>
       <c r="DG81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DH81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -28148,12 +28389,15 @@
         <v>6738.0</v>
       </c>
       <c r="DG82" t="n">
+        <v>6738.0</v>
+      </c>
+      <c r="DH82" t="n">
         <v>6738.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -28483,12 +28727,15 @@
         <v>202.0</v>
       </c>
       <c r="DG83" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DH83" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -28818,12 +29065,15 @@
         <v>698.0</v>
       </c>
       <c r="DG84" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="DH84" t="n">
         <v>698.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -29154,11 +29404,14 @@
       </c>
       <c r="DG85" t="n">
         <v>529.0</v>
+      </c>
+      <c r="DH85" t="n">
+        <v>530.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -29488,12 +29741,15 @@
         <v>0.0</v>
       </c>
       <c r="DG86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -29824,11 +30080,14 @@
       </c>
       <c r="DG87" t="n">
         <v>4469.0</v>
+      </c>
+      <c r="DH87" t="n">
+        <v>4527.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -30158,12 +30417,15 @@
         <v>147.0</v>
       </c>
       <c r="DG88" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="DH88" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -30493,12 +30755,15 @@
         <v>681.0</v>
       </c>
       <c r="DG89" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="DH89" t="n">
         <v>681.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -30828,12 +31093,15 @@
         <v>61.0</v>
       </c>
       <c r="DG90" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DH90" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -31163,12 +31431,15 @@
         <v>133.0</v>
       </c>
       <c r="DG91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DH91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -31498,12 +31769,15 @@
         <v>238.0</v>
       </c>
       <c r="DG92" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="DH92" t="n">
         <v>238.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -31833,12 +32107,15 @@
         <v>276.0</v>
       </c>
       <c r="DG93" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DH93" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -32168,12 +32445,15 @@
         <v>0.0</v>
       </c>
       <c r="DG94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -32504,11 +32784,14 @@
       </c>
       <c r="DG95" t="n">
         <v>4701.0</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>4720.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -32838,12 +33121,15 @@
         <v>295.0</v>
       </c>
       <c r="DG96" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="DH96" t="n">
         <v>295.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -33174,11 +33460,14 @@
       </c>
       <c r="DG97" t="n">
         <v>2728.0</v>
+      </c>
+      <c r="DH97" t="n">
+        <v>2730.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -33508,12 +33797,15 @@
         <v>0.0</v>
       </c>
       <c r="DG98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -33843,12 +34135,15 @@
         <v>98.0</v>
       </c>
       <c r="DG99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DH99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -34178,12 +34473,15 @@
         <v>49.0</v>
       </c>
       <c r="DG100" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DH100" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -34513,12 +34811,15 @@
         <v>434.0</v>
       </c>
       <c r="DG101" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DH101" t="n">
         <v>434.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -34848,12 +35149,15 @@
         <v>55.0</v>
       </c>
       <c r="DG102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DH102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -35183,12 +35487,15 @@
         <v>2380.0</v>
       </c>
       <c r="DG103" t="n">
+        <v>2380.0</v>
+      </c>
+      <c r="DH103" t="n">
         <v>2380.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -35518,12 +35825,15 @@
         <v>0.0</v>
       </c>
       <c r="DG104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -35854,11 +36164,14 @@
       </c>
       <c r="DG105" t="n">
         <v>2151.0</v>
+      </c>
+      <c r="DH105" t="n">
+        <v>2175.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -36188,12 +36501,15 @@
         <v>57.0</v>
       </c>
       <c r="DG106" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DH106" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -36523,12 +36839,15 @@
         <v>233.0</v>
       </c>
       <c r="DG107" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="DH107" t="n">
         <v>233.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -36858,12 +37177,15 @@
         <v>1761.0</v>
       </c>
       <c r="DG108" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="DH108" t="n">
         <v>1761.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -37193,12 +37515,15 @@
         <v>40.0</v>
       </c>
       <c r="DG109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DH109" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -37529,11 +37854,14 @@
       </c>
       <c r="DG110" t="n">
         <v>1755.0</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>1792.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -37864,11 +38192,14 @@
       </c>
       <c r="DG111" t="n">
         <v>22230.0</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>22365.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -38199,11 +38530,14 @@
       </c>
       <c r="DG112" t="n">
         <v>647.0</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -38533,12 +38867,15 @@
         <v>264.0</v>
       </c>
       <c r="DG113" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="DH113" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -38868,12 +39205,15 @@
         <v>2043.0</v>
       </c>
       <c r="DG114" t="n">
+        <v>2043.0</v>
+      </c>
+      <c r="DH114" t="n">
         <v>2043.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -39203,12 +39543,15 @@
         <v>1368.0</v>
       </c>
       <c r="DG115" t="n">
+        <v>1368.0</v>
+      </c>
+      <c r="DH115" t="n">
         <v>1368.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -39538,12 +39881,15 @@
         <v>676.0</v>
       </c>
       <c r="DG116" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="DH116" t="n">
         <v>679.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -39874,11 +40220,14 @@
       </c>
       <c r="DG117" t="n">
         <v>1503.0</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>1502.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -40209,11 +40558,14 @@
       </c>
       <c r="DG118" t="n">
         <v>83.0</v>
+      </c>
+      <c r="DH118" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -40543,12 +40895,15 @@
         <v>0.0</v>
       </c>
       <c r="DG119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -40878,12 +41233,15 @@
         <v>464.0</v>
       </c>
       <c r="DG120" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DH120" t="n">
         <v>464.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -41213,12 +41571,15 @@
         <v>59.0</v>
       </c>
       <c r="DG121" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DH121" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -41548,12 +41909,15 @@
         <v>76.0</v>
       </c>
       <c r="DG122" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DH122" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -41883,12 +42247,15 @@
         <v>158.0</v>
       </c>
       <c r="DG123" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="DH123" t="n">
         <v>158.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -42219,11 +42586,14 @@
       </c>
       <c r="DG124" t="n">
         <v>1347.0</v>
+      </c>
+      <c r="DH124" t="n">
+        <v>1353.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -42553,12 +42923,15 @@
         <v>37.0</v>
       </c>
       <c r="DG125" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DH125" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -42888,12 +43261,15 @@
         <v>0.0</v>
       </c>
       <c r="DG126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -43224,11 +43600,14 @@
       </c>
       <c r="DG127" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DH127" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -43558,12 +43937,15 @@
         <v>397.0</v>
       </c>
       <c r="DG128" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="DH128" t="n">
         <v>397.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -43893,12 +44275,15 @@
         <v>2391.0</v>
       </c>
       <c r="DG129" t="n">
+        <v>2391.0</v>
+      </c>
+      <c r="DH129" t="n">
         <v>2391.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -44228,12 +44613,15 @@
         <v>654.0</v>
       </c>
       <c r="DG130" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="DH130" t="n">
         <v>654.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -44564,11 +44952,14 @@
       </c>
       <c r="DG131" t="n">
         <v>120.0</v>
+      </c>
+      <c r="DH131" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -44898,12 +45289,15 @@
         <v>2045.0</v>
       </c>
       <c r="DG132" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="DH132" t="n">
         <v>2045.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -45233,12 +45627,15 @@
         <v>1164.0</v>
       </c>
       <c r="DG133" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="DH133" t="n">
         <v>1164.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -45568,12 +45965,15 @@
         <v>16.0</v>
       </c>
       <c r="DG134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DH134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -45903,12 +46303,15 @@
         <v>42.0</v>
       </c>
       <c r="DG135" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DH135" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -46239,11 +46642,14 @@
       </c>
       <c r="DG136" t="n">
         <v>1856.0</v>
+      </c>
+      <c r="DH136" t="n">
+        <v>1857.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -46573,12 +46979,15 @@
         <v>52.0</v>
       </c>
       <c r="DG137" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DH137" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -46908,12 +47317,15 @@
         <v>6.0</v>
       </c>
       <c r="DG138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DH138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -47243,12 +47655,15 @@
         <v>9.0</v>
       </c>
       <c r="DG139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DH139" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -47578,12 +47993,15 @@
         <v>544.0</v>
       </c>
       <c r="DG140" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="DH140" t="n">
         <v>544.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -47913,12 +48331,15 @@
         <v>78.0</v>
       </c>
       <c r="DG141" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DH141" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -48249,11 +48670,14 @@
       </c>
       <c r="DG142" t="n">
         <v>2919.0</v>
+      </c>
+      <c r="DH142" t="n">
+        <v>3020.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -48583,12 +49007,15 @@
         <v>430.0</v>
       </c>
       <c r="DG143" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="DH143" t="n">
         <v>430.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -48918,12 +49345,15 @@
         <v>316.0</v>
       </c>
       <c r="DG144" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="DH144" t="n">
         <v>319.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -49253,12 +49683,15 @@
         <v>191.0</v>
       </c>
       <c r="DG145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DH145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -49588,12 +50021,15 @@
         <v>351.0</v>
       </c>
       <c r="DG146" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="DH146" t="n">
         <v>351.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -49924,11 +50360,14 @@
       </c>
       <c r="DG147" t="n">
         <v>1011.0</v>
+      </c>
+      <c r="DH147" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -50259,11 +50698,14 @@
       </c>
       <c r="DG148" t="n">
         <v>320.0</v>
+      </c>
+      <c r="DH148" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -50594,11 +51036,14 @@
       </c>
       <c r="DG149" t="n">
         <v>1466.0</v>
+      </c>
+      <c r="DH149" t="n">
+        <v>1467.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -50929,11 +51374,14 @@
       </c>
       <c r="DG150" t="n">
         <v>546.0</v>
+      </c>
+      <c r="DH150" t="n">
+        <v>548.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -51263,12 +51711,15 @@
         <v>23.0</v>
       </c>
       <c r="DG151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DH151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -51598,12 +52049,15 @@
         <v>249.0</v>
       </c>
       <c r="DG152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DH152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -51934,11 +52388,14 @@
       </c>
       <c r="DG153" t="n">
         <v>413.0</v>
+      </c>
+      <c r="DH153" t="n">
+        <v>416.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -52268,12 +52725,15 @@
         <v>0.0</v>
       </c>
       <c r="DG154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -52603,12 +53063,15 @@
         <v>0.0</v>
       </c>
       <c r="DG155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -52938,12 +53401,15 @@
         <v>0.0</v>
       </c>
       <c r="DG156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -53273,12 +53739,15 @@
         <v>144.0</v>
       </c>
       <c r="DG157" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DH157" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -53608,12 +54077,15 @@
         <v>0.0</v>
       </c>
       <c r="DG158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -53943,12 +54415,15 @@
         <v>19.0</v>
       </c>
       <c r="DG159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DH159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -54279,11 +54754,14 @@
       </c>
       <c r="DG160" t="n">
         <v>214.0</v>
+      </c>
+      <c r="DH160" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -54614,11 +55092,14 @@
       </c>
       <c r="DG161" t="n">
         <v>174.0</v>
+      </c>
+      <c r="DH161" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -54948,12 +55429,15 @@
         <v>253.0</v>
       </c>
       <c r="DG162" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="DH162" t="n">
         <v>253.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -55283,12 +55767,15 @@
         <v>145.0</v>
       </c>
       <c r="DG163" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DH163" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -55618,12 +56105,15 @@
         <v>347.0</v>
       </c>
       <c r="DG164" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="DH164" t="n">
         <v>347.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -55953,12 +56443,15 @@
         <v>0.0</v>
       </c>
       <c r="DG165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -56288,12 +56781,15 @@
         <v>969.0</v>
       </c>
       <c r="DG166" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="DH166" t="n">
         <v>969.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -56623,12 +57119,15 @@
         <v>66.0</v>
       </c>
       <c r="DG167" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DH167" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -56958,12 +57457,15 @@
         <v>0.0</v>
       </c>
       <c r="DG168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -57293,12 +57795,15 @@
         <v>944.0</v>
       </c>
       <c r="DG169" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="DH169" t="n">
         <v>944.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -57628,12 +58133,15 @@
         <v>52.0</v>
       </c>
       <c r="DG170" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DH170" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -57963,12 +58471,15 @@
         <v>0.0</v>
       </c>
       <c r="DG171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -58298,12 +58809,15 @@
         <v>293.0</v>
       </c>
       <c r="DG172" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="DH172" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -58633,12 +59147,15 @@
         <v>7524.0</v>
       </c>
       <c r="DG173" t="n">
+        <v>7524.0</v>
+      </c>
+      <c r="DH173" t="n">
         <v>7524.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -58968,12 +59485,15 @@
         <v>297.0</v>
       </c>
       <c r="DG174" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="DH174" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -59303,12 +59823,15 @@
         <v>260.0</v>
       </c>
       <c r="DG175" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="DH175" t="n">
         <v>260.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -59638,12 +60161,15 @@
         <v>49.0</v>
       </c>
       <c r="DG176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DH176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -59973,12 +60499,15 @@
         <v>903.0</v>
       </c>
       <c r="DG177" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="DH177" t="n">
         <v>902.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -60308,12 +60837,15 @@
         <v>2130.0</v>
       </c>
       <c r="DG178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DH178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -60644,11 +61176,14 @@
       </c>
       <c r="DG179" t="n">
         <v>283.0</v>
+      </c>
+      <c r="DH179" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -60978,12 +61513,15 @@
         <v>0.0</v>
       </c>
       <c r="DG180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -61314,11 +61852,14 @@
       </c>
       <c r="DG181" t="n">
         <v>9888.0</v>
+      </c>
+      <c r="DH181" t="n">
+        <v>9903.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -61648,12 +62189,15 @@
         <v>106.0</v>
       </c>
       <c r="DG182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DH182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -61983,12 +62527,15 @@
         <v>126.0</v>
       </c>
       <c r="DG183" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DH183" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -62318,12 +62865,15 @@
         <v>3506.0</v>
       </c>
       <c r="DG184" t="n">
+        <v>3506.0</v>
+      </c>
+      <c r="DH184" t="n">
         <v>3506.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -62653,12 +63203,15 @@
         <v>365.0</v>
       </c>
       <c r="DG185" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="DH185" t="n">
         <v>365.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -62989,11 +63542,14 @@
       </c>
       <c r="DG186" t="n">
         <v>529.0</v>
+      </c>
+      <c r="DH186" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -63323,12 +63879,15 @@
         <v>2772.0</v>
       </c>
       <c r="DG187" t="n">
+        <v>2772.0</v>
+      </c>
+      <c r="DH187" t="n">
         <v>2772.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -63658,12 +64217,15 @@
         <v>333.0</v>
       </c>
       <c r="DG188" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="DH188" t="n">
         <v>333.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -63994,11 +64556,14 @@
       </c>
       <c r="DG189" t="n">
         <v>273.0</v>
+      </c>
+      <c r="DH189" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -64328,12 +64893,15 @@
         <v>1525.0</v>
       </c>
       <c r="DG190" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="DH190" t="n">
         <v>1525.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -64663,12 +65231,15 @@
         <v>0.0</v>
       </c>
       <c r="DG191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -64998,12 +65569,15 @@
         <v>165.0</v>
       </c>
       <c r="DG192" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="DH192" t="n">
         <v>165.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -65334,11 +65908,14 @@
       </c>
       <c r="DG193" t="n">
         <v>366.0</v>
+      </c>
+      <c r="DH193" t="n">
+        <v>367.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -65668,12 +66245,15 @@
         <v>0.0</v>
       </c>
       <c r="DG194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -66003,12 +66583,15 @@
         <v>172.0</v>
       </c>
       <c r="DG195" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="DH195" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -66338,12 +66921,15 @@
         <v>28.0</v>
       </c>
       <c r="DG196" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DH196" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -66673,12 +67259,15 @@
         <v>249.0</v>
       </c>
       <c r="DG197" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DH197" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -67008,12 +67597,15 @@
         <v>707.0</v>
       </c>
       <c r="DG198" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="DH198" t="n">
         <v>705.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -67343,12 +67935,15 @@
         <v>53.0</v>
       </c>
       <c r="DG199" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DH199" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -67678,12 +68273,15 @@
         <v>3.0</v>
       </c>
       <c r="DG200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DH200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -68014,11 +68612,14 @@
       </c>
       <c r="DG201" t="n">
         <v>398.0</v>
+      </c>
+      <c r="DH201" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -68348,12 +68949,15 @@
         <v>1781.0</v>
       </c>
       <c r="DG202" t="n">
+        <v>1781.0</v>
+      </c>
+      <c r="DH202" t="n">
         <v>1781.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -68683,12 +69287,15 @@
         <v>478.0</v>
       </c>
       <c r="DG203" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="DH203" t="n">
         <v>478.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -69019,11 +69626,14 @@
       </c>
       <c r="DG204" t="n">
         <v>1581.0</v>
+      </c>
+      <c r="DH204" t="n">
+        <v>1590.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -69353,12 +69963,15 @@
         <v>322.0</v>
       </c>
       <c r="DG205" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DH205" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -69688,12 +70301,15 @@
         <v>202.0</v>
       </c>
       <c r="DG206" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DH206" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -70024,11 +70640,14 @@
       </c>
       <c r="DG207" t="n">
         <v>256.0</v>
+      </c>
+      <c r="DH207" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -70358,12 +70977,15 @@
         <v>943.0</v>
       </c>
       <c r="DG208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DH208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -70693,12 +71315,15 @@
         <v>241.0</v>
       </c>
       <c r="DG209" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="DH209" t="n">
         <v>241.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -71028,12 +71653,15 @@
         <v>109.0</v>
       </c>
       <c r="DG210" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DH210" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -71363,12 +71991,15 @@
         <v>0.0</v>
       </c>
       <c r="DG211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -71698,12 +72329,15 @@
         <v>121.0</v>
       </c>
       <c r="DG212" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="DH212" t="n">
         <v>121.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -72033,12 +72667,15 @@
         <v>648.0</v>
       </c>
       <c r="DG213" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="DH213" t="n">
         <v>648.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -72368,12 +73005,15 @@
         <v>23.0</v>
       </c>
       <c r="DG214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DH214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -72704,11 +73344,14 @@
       </c>
       <c r="DG215" t="n">
         <v>7715.0</v>
+      </c>
+      <c r="DH215" t="n">
+        <v>7731.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -73038,12 +73681,15 @@
         <v>454.0</v>
       </c>
       <c r="DG216" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="DH216" t="n">
         <v>454.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -73373,12 +74019,15 @@
         <v>1426.0</v>
       </c>
       <c r="DG217" t="n">
+        <v>1426.0</v>
+      </c>
+      <c r="DH217" t="n">
         <v>1426.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -73708,12 +74357,15 @@
         <v>322.0</v>
       </c>
       <c r="DG218" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DH218" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -74043,12 +74695,15 @@
         <v>56.0</v>
       </c>
       <c r="DG219" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DH219" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -74378,12 +75033,15 @@
         <v>101.0</v>
       </c>
       <c r="DG220" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DH220" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -74713,12 +75371,15 @@
         <v>191.0</v>
       </c>
       <c r="DG221" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DH221" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -75048,12 +75709,15 @@
         <v>354.0</v>
       </c>
       <c r="DG222" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="DH222" t="n">
         <v>354.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -75384,11 +76048,14 @@
       </c>
       <c r="DG223" t="n">
         <v>34531.0</v>
+      </c>
+      <c r="DH223" t="n">
+        <v>34557.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -75718,12 +76385,15 @@
         <v>8031.0</v>
       </c>
       <c r="DG224" t="n">
+        <v>8031.0</v>
+      </c>
+      <c r="DH224" t="n">
         <v>8031.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -76053,12 +76723,15 @@
         <v>11.0</v>
       </c>
       <c r="DG225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DH225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -76388,12 +77061,15 @@
         <v>0.0</v>
       </c>
       <c r="DG226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -76723,12 +77399,15 @@
         <v>23.0</v>
       </c>
       <c r="DG227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DH227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -77059,11 +77738,14 @@
       </c>
       <c r="DG228" t="n">
         <v>930.0</v>
+      </c>
+      <c r="DH228" t="n">
+        <v>929.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -77393,12 +78075,15 @@
         <v>7928.0</v>
       </c>
       <c r="DG229" t="n">
+        <v>7928.0</v>
+      </c>
+      <c r="DH229" t="n">
         <v>7928.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -77728,12 +78413,15 @@
         <v>0.0</v>
       </c>
       <c r="DG230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -78063,12 +78751,15 @@
         <v>181.0</v>
       </c>
       <c r="DG231" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="DH231" t="n">
         <v>186.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -78399,11 +79090,14 @@
       </c>
       <c r="DG232" t="n">
         <v>640.0</v>
+      </c>
+      <c r="DH232" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -78734,11 +79428,14 @@
       </c>
       <c r="DG233" t="n">
         <v>1833.0</v>
+      </c>
+      <c r="DH233" t="n">
+        <v>1834.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -79068,12 +79765,15 @@
         <v>292.0</v>
       </c>
       <c r="DG234" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="DH234" t="n">
         <v>292.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -79403,12 +80103,15 @@
         <v>109.0</v>
       </c>
       <c r="DG235" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="DH235" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -79738,12 +80441,15 @@
         <v>0.0</v>
       </c>
       <c r="DG236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -80074,11 +80780,14 @@
       </c>
       <c r="DG237" t="n">
         <v>1441.0</v>
+      </c>
+      <c r="DH237" t="n">
+        <v>1452.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -80408,12 +81117,15 @@
         <v>9.0</v>
       </c>
       <c r="DG238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DH238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -80743,12 +81455,15 @@
         <v>789.0</v>
       </c>
       <c r="DG239" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="DH239" t="n">
         <v>795.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -81079,11 +81794,14 @@
       </c>
       <c r="DG240" t="n">
         <v>390.0</v>
+      </c>
+      <c r="DH240" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -81414,11 +82132,14 @@
       </c>
       <c r="DG241" t="n">
         <v>455.0</v>
+      </c>
+      <c r="DH241" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -81749,11 +82470,14 @@
       </c>
       <c r="DG242" t="n">
         <v>615.0</v>
+      </c>
+      <c r="DH242" t="n">
+        <v>617.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -82083,12 +82807,15 @@
         <v>0.0</v>
       </c>
       <c r="DG243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -82418,12 +83145,15 @@
         <v>374.0</v>
       </c>
       <c r="DG244" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="DH244" t="n">
         <v>375.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -82753,12 +83483,15 @@
         <v>46.0</v>
       </c>
       <c r="DG245" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DH245" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -83088,12 +83821,15 @@
         <v>0.0</v>
       </c>
       <c r="DG246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -83423,12 +84159,15 @@
         <v>277.0</v>
       </c>
       <c r="DG247" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DH247" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -83758,12 +84497,15 @@
         <v>148.0</v>
       </c>
       <c r="DG248" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="DH248" t="n">
         <v>148.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -84093,12 +84835,15 @@
         <v>5059.0</v>
       </c>
       <c r="DG249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DH249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -84428,12 +85173,15 @@
         <v>787.0</v>
       </c>
       <c r="DG250" t="n">
+        <v>787.0</v>
+      </c>
+      <c r="DH250" t="n">
         <v>787.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -84763,12 +85511,15 @@
         <v>181.0</v>
       </c>
       <c r="DG251" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DH251" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -85098,12 +85849,15 @@
         <v>1074.0</v>
       </c>
       <c r="DG252" t="n">
+        <v>1074.0</v>
+      </c>
+      <c r="DH252" t="n">
         <v>1074.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -85434,11 +86188,14 @@
       </c>
       <c r="DG253" t="n">
         <v>1334.0</v>
+      </c>
+      <c r="DH253" t="n">
+        <v>1341.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -85768,12 +86525,15 @@
         <v>0.0</v>
       </c>
       <c r="DG254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -86103,12 +86863,15 @@
         <v>219.0</v>
       </c>
       <c r="DG255" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="DH255" t="n">
         <v>219.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -86438,12 +87201,15 @@
         <v>194.0</v>
       </c>
       <c r="DG256" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="DH256" t="n">
         <v>194.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -86773,6 +87539,9 @@
         <v>174.0</v>
       </c>
       <c r="DG257" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DH257" t="n">
         <v>174.0</v>
       </c>
     </row>
